--- a/biology/Botanique/Pensée_de_Rouen/Pensée_de_Rouen.xlsx
+++ b/biology/Botanique/Pensée_de_Rouen/Pensée_de_Rouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_de_Rouen</t>
+          <t>Pensée_de_Rouen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola hispida
-La Pensée de Rouen (Viola hispida) est une plante herbacée vivace de la famille des Violacées. Elle est plus rarement appelée Violette de Rouen. Son ancien nom scientifique, Viola rothomagensis[2],[3], devait son nom à Rotomagus, le nom latin de la ville de Rouen.
+La Pensée de Rouen (Viola hispida) est une plante herbacée vivace de la famille des Violacées. Elle est plus rarement appelée Violette de Rouen. Son ancien nom scientifique, Viola rothomagensis devait son nom à Rotomagus, le nom latin de la ville de Rouen.
 C'est une espèce en danger critique d'extinction, dont la présence n'est plus recensée aujourd'hui que dans la vallée de Seine (bassin parisien et rouennais).
 Elle aime les éboulis calcaires, les sols pauvres, la pénombre des sous-bois et l'humidité.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_de_Rouen</t>
+          <t>Pensée_de_Rouen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante basse velue, aux feuilles ovales à base plutôt cordiforme, aux stipules palmatilobés, aux fleurs violettes ou jaunâtres.
 Avec un système de racines chevelues, elle s'adapte aux mouvements du sol et capte l'humidité de celui-ci.
-Elle fleurit au début du printemps et produit ses fruits, puis graines en été. Une relation mutualiste a été établie entre les fourmis et la violette de Rouen, dans le cadre de sa dissémination des graines[4].
+Elle fleurit au début du printemps et produit ses fruits, puis graines en été. Une relation mutualiste a été établie entre les fourmis et la violette de Rouen, dans le cadre de sa dissémination des graines.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_de_Rouen</t>
+          <t>Pensée_de_Rouen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">organes reproducteurs :
 Type d'inflorescence : fleur solitaire latérale
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_de_Rouen</t>
+          <t>Pensée_de_Rouen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,10 +605,12 @@
           <t>Une espèce en voie de disparition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Violette de Rouen, espèce protégée et en voie de disparition, fait l'objet de politiques de préservation. Elle est à l'origine de plusieurs actions de protection, et joue un rôle dans modification du projet de contournement routier de la ville de Rouen[5],[6].
-Le Conservatoire d'Espaces Naturels de Haute-Normandie utilise le programme Life-Nature (un financement de l'Union Européenne) pour la conservation et la restauration de corridors écologiques favorables à la plante[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Violette de Rouen, espèce protégée et en voie de disparition, fait l'objet de politiques de préservation. Elle est à l'origine de plusieurs actions de protection, et joue un rôle dans modification du projet de contournement routier de la ville de Rouen,.
+Le Conservatoire d'Espaces Naturels de Haute-Normandie utilise le programme Life-Nature (un financement de l'Union Européenne) pour la conservation et la restauration de corridors écologiques favorables à la plante.
 </t>
         </is>
       </c>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_de_Rouen</t>
+          <t>Pensée_de_Rouen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Royer, botaniste de la Côte-d'Or du XIXe siècle, fait un rapprochement entre la Pensée de Rouen et la Violette de Cry, considérant celle-ci comme une variété glabre de Viola hispida[7],[8]. Elle est considérée comme éteinte depuis les années 1930[réf. nécessaire].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Royer, botaniste de la Côte-d'Or du XIXe siècle, fait un rapprochement entre la Pensée de Rouen et la Violette de Cry, considérant celle-ci comme une variété glabre de Viola hispida,. Elle est considérée comme éteinte depuis les années 1930[réf. nécessaire].
 </t>
         </is>
       </c>
